--- a/realsense/numbers/speed/speed-prop-improve-v1-mandrill_tileExpand_Nz40.xlsx
+++ b/realsense/numbers/speed/speed-prop-improve-v1-mandrill_tileExpand_Nz40.xlsx
@@ -8,15 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taw11\source\repos2\At-oZ\realsense\realsense\numbers\speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6102E303-6894-48B5-9D2F-F0B9501AB421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228A1138-C6C3-435E-9742-50DF05336BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="6480" windowWidth="21640" windowHeight="11160" xr2:uid="{323FC086-DA77-4261-A738-43D401CEE1F7}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{323FC086-DA77-4261-A738-43D401CEE1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed-prop-improve-v1-mandrill_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,6 +690,1850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10456445129673476"/>
+          <c:y val="5.5276562651890737E-2"/>
+          <c:w val="0.87008589835361494"/>
+          <c:h val="0.76656994264605816"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>256mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>512mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1024mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2048mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4096mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>8192mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.349999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.201666666666675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.913333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Target</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$A$8:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speed-prop-improve-v1-mandrill_'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-73F5-46E9-B25C-9EF0DB945223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1011736015"/>
+        <c:axId val="1011755215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1011736015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Magnification of detailing</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011755215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1011755215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Time[ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011736015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83496503496503494"/>
+          <c:y val="0.41126531058617677"/>
+          <c:w val="0.13286713286713286"/>
+          <c:h val="0.39290655074365705"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388A1226-AA4C-4DB7-9611-0CDD7E392B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="psnr-mandrill_real_prop-improve"/>
+      <sheetName val="256mm"/>
+      <sheetName val="512mm"/>
+      <sheetName val="1024mm"/>
+      <sheetName val="2048mm"/>
+      <sheetName val="4096mm"/>
+      <sheetName val="8192mm"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>27.756325</v>
+          </cell>
+          <cell r="C2">
+            <v>35.503999999999998</v>
+          </cell>
+          <cell r="D2">
+            <v>31.375925000000002</v>
+          </cell>
+          <cell r="E2">
+            <v>30.705475</v>
+          </cell>
+          <cell r="F2">
+            <v>25.295299999999997</v>
+          </cell>
+          <cell r="G2">
+            <v>24.952500000000001</v>
+          </cell>
+          <cell r="H2">
+            <v>29.264920833333331</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>27.2805</v>
+          </cell>
+          <cell r="C3">
+            <v>35.626550000000002</v>
+          </cell>
+          <cell r="D3">
+            <v>33.377050000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>27.109625000000001</v>
+          </cell>
+          <cell r="F3">
+            <v>28.574399999999997</v>
+          </cell>
+          <cell r="G3">
+            <v>24.639475000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>29.4346</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>31.629550000000002</v>
+          </cell>
+          <cell r="C4">
+            <v>35.503999999999998</v>
+          </cell>
+          <cell r="D4">
+            <v>37.262174999999999</v>
+          </cell>
+          <cell r="E4">
+            <v>38.830375000000004</v>
+          </cell>
+          <cell r="F4">
+            <v>37.953675000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>39.282349999999994</v>
+          </cell>
+          <cell r="H4">
+            <v>36.7436875</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>29.686299999999999</v>
+          </cell>
+          <cell r="C5">
+            <v>34.730525</v>
+          </cell>
+          <cell r="D5">
+            <v>39.727149999999995</v>
+          </cell>
+          <cell r="E5">
+            <v>37.590525000000007</v>
+          </cell>
+          <cell r="F5">
+            <v>35.678674999999998</v>
+          </cell>
+          <cell r="G5">
+            <v>33.224125000000001</v>
+          </cell>
+          <cell r="H5">
+            <v>35.106216666666661</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>32.343599999999995</v>
+          </cell>
+          <cell r="C6">
+            <v>31.901299999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>27.754899999999999</v>
+          </cell>
+          <cell r="E6">
+            <v>39.72775</v>
+          </cell>
+          <cell r="F6">
+            <v>40.425850000000004</v>
+          </cell>
+          <cell r="G6">
+            <v>33.300699999999999</v>
+          </cell>
+          <cell r="H6">
+            <v>34.242350000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,15 +2833,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81DFBCD-6C31-4FD4-9729-488C3F2F57F2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1">
         <v>256</v>
       </c>
@@ -993,8 +2860,11 @@
       <c r="G1">
         <v>8192</v>
       </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1016,8 +2886,12 @@
       <c r="G2">
         <v>43.68</v>
       </c>
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>37.300000000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1039,8 +2913,12 @@
       <c r="G3">
         <v>58.26</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">AVERAGE(B3:G3)</f>
+        <v>52.201666666666675</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1062,8 +2940,12 @@
       <c r="G4">
         <v>57.47</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>51.913333333333334</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1085,8 +2967,12 @@
       <c r="G5">
         <v>79.459999999999994</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>74.66</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1107,10 +2993,34 @@
       </c>
       <c r="G6">
         <v>80.349999999999994</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2:H6" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>